--- a/doc/ue_slate_debug.xlsx
+++ b/doc/ue_slate_debug.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E408B610-F644-445E-BE0E-EDBDA6A613B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC9BDB9-73C0-4550-89AF-914A880FC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="metaData" sheetId="3" r:id="rId2"/>
     <sheet name="UE4.27" sheetId="2" r:id="rId3"/>
     <sheet name="问题" sheetId="4" r:id="rId4"/>
+    <sheet name="调试信息" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Clipping.h</t>
   </si>
@@ -84,13 +85,68 @@
   <si>
     <t>Swidget的Asset，只有WITH_EDITOR或者非UE_BUILD_SHIPPING模式下才可以获取到，就是说只能拿到控件名字，无法拿到资源名字和路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ifndef SLATE_VERBOSE_NAMED_EVENTS</t>
+  </si>
+  <si>
+    <t>#define SLATE_VERBOSE_NAMED_EVENTS !UE_BUILD_SHIPPING</t>
+  </si>
+  <si>
+    <t>每一个控件在构造的时候，都设置了对应的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (WidgetObject)</t>
+  </si>
+  <si>
+    <t>#if SLATE_VERBOSE_NAMED_EVENTS</t>
+  </si>
+  <si>
+    <t>DebugName = WidgetObject-&gt;GetFullName();</t>
+  </si>
+  <si>
+    <t>DebugPaintEventName = DebugName + TEXT("_Paint");</t>
+  </si>
+  <si>
+    <t>DebugTickEventName = DebugName + TEXT("_Tick");</t>
+  </si>
+  <si>
+    <t>WidgetObject-&gt;UpdateCanTick();</t>
+  </si>
+  <si>
+    <t>#ifndef WITH_VERY_VERBOSE_SLATE_STATS</t>
+  </si>
+  <si>
+    <t>#define WITH_VERY_VERBOSE_SLATE_STATS 0</t>
+  </si>
+  <si>
+    <t>附加调试信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印对应的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCOPED_NAMED_EVENT_FSTRING(DebugTickEventName, FColor::Turquoise);</t>
+  </si>
+  <si>
+    <t>#if WITH_VERY_VERBOSE_SLATE_STATS</t>
+  </si>
+  <si>
+    <t>FScopeCycleCounterUObject NativeFunctionScope(WidgetObject);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +166,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -133,9 +198,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -548,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A047B-323A-4583-8C2C-DCA827206D44}">
   <dimension ref="B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -564,4 +630,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57828A9C-AFAB-4B99-AB83-D1B2BEF9CE87}">
+  <dimension ref="A3:E34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_slate_debug.xlsx
+++ b/doc/ue_slate_debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC9BDB9-73C0-4550-89AF-914A880FC36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FB7BB-8786-41AF-B0A9-F2961F43679E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Clipping.h</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>FScopeCycleCounterUObject NativeFunctionScope(WidgetObject);</t>
+  </si>
+  <si>
+    <t>！！！这些都是在非SHIPPING模式下自己打印的，对于性能影响比较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，如果在SHIPPING下，最好自己手写一些，只对需要的控件打印，而不是全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,15 +642,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57828A9C-AFAB-4B99-AB83-D1B2BEF9CE87}">
-  <dimension ref="A3:E34"/>
+  <dimension ref="A3:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -650,22 +658,32 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -673,43 +691,43 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="E13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="E14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="E15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
         <v>9</v>
